--- a/data/flood/raw/2016-12-19_unicef/ZaatariCamp_UNICEF_2016_12_19.xlsx
+++ b/data/flood/raw/2016-12-19_unicef/ZaatariCamp_UNICEF_2016_12_19.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27820"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxmalynowsky/JOR/Projects/2016_UNICEF_Camps/Activities/2016_12 - Flood Damage/Table_Database/01_Raw/2016-12-15_un-ops/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxmalynowsky/git/impact-initiatives/reach-jor-zaatari-data/data/flood/raw/2016-12-19_unicef/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -429,6 +429,63 @@
   </si>
   <si>
     <t>2016-12-19T09:48:40</t>
+  </si>
+  <si>
+    <t>15:05:00.000+01</t>
+  </si>
+  <si>
+    <t>32.286748333333335 36.32992 657.3 2.5</t>
+  </si>
+  <si>
+    <t>uuid:3b039c83-d908-4564-98c1-aa83d3405715</t>
+  </si>
+  <si>
+    <t>3b039c83-d908-4564-98c1-aa83d3405715</t>
+  </si>
+  <si>
+    <t>14:55:00.000+01</t>
+  </si>
+  <si>
+    <t>32.29559833333334 36.31944 650.1 2.5</t>
+  </si>
+  <si>
+    <t>uuid:7b4bbf46-861b-4a83-98c6-561d267b9d28</t>
+  </si>
+  <si>
+    <t>7b4bbf46-861b-4a83-98c6-561d267b9d28</t>
+  </si>
+  <si>
+    <t>14:56:00.000+01</t>
+  </si>
+  <si>
+    <t>32.295451666666665 36.319435 653.0 3.0</t>
+  </si>
+  <si>
+    <t>uuid:4d032d81-3ea6-48b5-bd85-6752929c80fa</t>
+  </si>
+  <si>
+    <t>4d032d81-3ea6-48b5-bd85-6752929c80fa</t>
+  </si>
+  <si>
+    <t>14:49:00.000+01</t>
+  </si>
+  <si>
+    <t>32.29558 36.31946833333333 648.9 2.6</t>
+  </si>
+  <si>
+    <t>uuid:c0e78d68-f452-4284-acce-87f5af2d8c84</t>
+  </si>
+  <si>
+    <t>c0e78d68-f452-4284-acce-87f5af2d8c84</t>
+  </si>
+  <si>
+    <t>2016-12-19T13:12:14</t>
+  </si>
+  <si>
+    <t>2016-12-19T13:12:13</t>
+  </si>
+  <si>
+    <t>2016-12-19T13:12:12</t>
   </si>
 </sst>
 </file>
@@ -467,9 +524,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1977,174 +2036,404 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>42723</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>32.2836483333</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>36.331041666700003</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>656.8</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>2.5</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>5441247</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>123</v>
       </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-      <c r="S22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>42723</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="R22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>32.282511666700003</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>36.336238333300003</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>660.8</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>2.4</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>5441248</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>124</v>
       </c>
-      <c r="R23">
-        <v>-1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>42723</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="R23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>32.2846066667</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>36.335991666699996</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>662.5</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>3.3</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="K24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>5441249</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>125</v>
       </c>
-      <c r="R24">
-        <v>-1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" t="s">
-        <v>23</v>
-      </c>
-    </row>
+      <c r="R24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="3">
+        <v>32.286748333299997</v>
+      </c>
+      <c r="E25" s="3">
+        <v>36.329920000000001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>657.3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5474004</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="3">
+        <v>32.295598333299999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>36.31944</v>
+      </c>
+      <c r="F26" s="3">
+        <v>650.1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5474002</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="3">
+        <v>32.295451666699996</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36.319434999999999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>653</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5474003</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3">
+        <v>32.295580000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <v>36.319468333300001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>648.9</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5474000</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+      <c r="R28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
